--- a/reagents.xlsx
+++ b/reagents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,16 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reagents.xlsx
+++ b/reagents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Quantity</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,7 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -572,17 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
